--- a/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    One of the most serious national security challenges we currently face as a Nation is the security of our Country's information and communications infrastructure. I am encouraged this committee is leading a bipartisan effort to address our Government's cybersecurity, and I want to thank Ranking Member Cummings for bringing this issue to the committee's attention and for his tenacity in insisting that we address this in an aggressive way and, thus, we are here today.    The stakes are high. Hackers are targeting extremely sensitive information related to our national security. Hackers recently hit the White House, State Department networks. They are accessing a range of sensitive information. But these are not isolated incidents. Cyber attacks against government assets are becoming more frequent and they are more sophisticated then ever. Over the past eight years, the number of information security incidents has risen by more than 1,000 percent, if not more, and they are happening at the private sector at an increasing and alarming rate.    One of the members of our team that knows a lot about this we are proud to have as the subcommittee chairman on our IT Subcommittee is the general from Texas, Mr. Hurd. I would like to give him time at this point.</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Chairman. I join you in thanking Ranking Member Cummings for bringing this important issue to the committee's attention.    This is not a new problem. The Government Accountability Office has identified the security of Federal information systems and critical infrastructure as a government-wide high-risk issue every year since 1997. Congress recently took action to address the cybersecurity threat. Last year we passed an update to the Federal Information Security Management Act, or FISMA, of 2014. This committee, and particularly the IT Subcommittee, which I chair, intends to closely monitor the implementation of FISMA 2014 because FISMA is the backbone of the Federal response to the cybersecurity threat.    A key aspect of these reforms was increased accountability and transparency for OMB and DHS and all Federal agencies with regard to cybersecurity, and Federal agencies are now required to report to Congress when their networks are hacked. This increased transparency will allow Congress to better understand how our Government is protecting some of our most sensitive information.    Concerns about cybersecurity are not limited to government networks. Hackers have successfully breached the networks of government contractors like USIS and KeyPoint. Their computer networks contain extremely sensitive information about thousands of Federal employees cleared to access classified information. In fact, almost one-third of all personnel who provide security services at the 24 major Federal agencies are contractors. So we have to make sure government contractors are protecting the information we entrust them to protect.    After all, as the chairman said, if one of our Nation's most secure networks, the White House, is vulnerable and susceptible to these attacks, then how do we know to what extent other agencies and contractors are preparing themselves?    Mr. Chairman, I look forward to working with you and the ranking members and members on both sides of the aisle in this process. I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. I thank you for agreeing to my request to hold today's hearing on the cybersecurity challenges posed by contractors and third-party vendors.    Over the past several years we have seen an alarming increase in the number of major data breaches that originated with contractors and vendors. Just last year, Target and Home Depot were breached by hackers who gained access to the retailers' networks by using credentials stolen from the computer systems of vendors that did business with these companies.    Federal agencies are not immune. The breach of the Postal Service last year originated from a phishing attack on a contractor for the agency. Last year, contractors with the Office of Personnel Management were subjected to a sophisticated cyber attack and tens of thousands of sensitive personnel records were compromised. One of those contractors was a company called USIS. At the time, it was the largest provider of background information investigative services to the Federal Government.    USIS is currently at the center of a billion dollar civil fraud suit brought by the Justice Department for allegedly dumping incomplete background investigation reports to OPM over a four and a half year time period. According to the Justice Department, USIS deliberately took this action to increase profits. Apparently, the company's desire to increase profits also may have been to blame for its failure to make cyber investments necessary to secure the large amounts of sensitive personal information it should have been protecting on its networks.    On September 3rd, 2014, committee staff received a briefing from security experts at the Department of Homeland Security, the Office of Director of National Intelligence, and OPM, all of whom analyzed the cyber attack against USIS. While much of that briefing was sensitive, one point may be discussed publicly. Press accounts had initially reported that the attack may have compromised the personal information of up to 27,000 Federal employees.    However, government cybersecurity experts believe this number is a floor and not a ceiling. The actual number of individuals affected by USIS's data breach is still not yet known, but these experts believe that the personal information of many more Federal employees may have been compromised.    Unfortunately, investigating the USIS data breach has been particularly challenging. That is because neither USIS nor its parent company, Altegrity, have fully complied with this committee's request for answers.    Today's hearing is a recognition that the Federal Government faces increased cyber risks from contractors. But as I mentioned earlier, this is a challenge the private sector faces as well.    I have repeatedly pressed for more rigorous oversight of cybersecurity in both private and public sectors. Although we had little success in the previous Congress, I am encouraged by the bipartisan approach we have taken on this very critical issue and I hope it continues.    So, Mr. Chairman, I want to thank you again for agreeing to hold today's hearing. In addition, I understand that our staffs are meeting tomorrow to discuss a possible follow-on hearing with some of these private sector entities. And I want to thank you for continuing to work with me.    While our ranking member is not here yet, I would yield a minute to my colleague, Mr. Connolly, who has worked very hard on these issues over the years. He might have a brief statement.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the ranking member for his generosity.    Obviously, cybersecurity is a sophisticated and evolving national challenge. Meeting the daunting threat requires a broad whole-Government and industry approach that simultaneously enhances what I believe are the three pillars of an effective approach to cybersecurity: people, policy, and practices.    No better demonstration of this importance of individuals in securing information systems than the truism that the number one cybersecurity threat or vulnerability facing any company is the behavior of its own employees. Indeed, the best cybersecurity policies in the world won't amount to a hill of beans if an organization's culture does not translate good policy into better practice.    So I really look forward to hearing the testimony today. I look forward to working with you, Mr. Chairman, and you, Mr. Cummings, as we move forward with some legislative remedies to what I think is a vexing and growing problem that affects both the domestic and, frankly, defense and intelligence sides of the Federal Government. Thank you.</t>
   </si>
   <si>
@@ -94,10 +82,7 @@
     <t xml:space="preserve">    Chairman Chaffetz. Let the record reflect that all witnesses have answered in the affirmative.    In order to allow time for discussion, we would appreciate it if you would hold your verbal comments to five minutes. We have a little generosity on that, but please be assured that your entire written statement will be entered into and made part of the record.    So, with that, Mr. Scott, we will now recognize you for five minutes.</t>
   </si>
   <si>
-    <t>412477</t>
-  </si>
-  <si>
-    <t>Scott DesJarlais</t>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Chairman Chaffetz and Ranking Member Cummings and members of the committee. Thank you for the opportunity to appear before you today.    I started as the Federal Chief Information Officer just over two months ago, and I am excited for the opportunity to speak with you today about OMB's role in Federal cybersecurity. I am also pleased to join the panel, as everyone here has an important role to play in strengthening cybersecurity.    Federal cybersecurity oversight is one of my responsibilities as Federal CIO and head of the OMB Office of E-Government and Information Technology. My office is responsible for two things: first, developing and overseeing the implementation of Federal IT policy and, second, through the United States Digital Service, providing onsite expertise to agencies with high impact facing IT programs. My team is also leading the government-wide implementation of the Federal Information Technology Acquisition Reform Act, known as FITARA, and the Federal Information Security Modernization Act of 2014, FISMA, both of which passed last year.    Strengthening Federal cybersecurity is one of the Administration's top priorities and a duty that I take very seriously. Having recently left a private sector CIO role, I can attest to the fact that having a strong cybersecurity program is critical to ensuring mission success. This is no different in the Federal Government. Given the evolving threat landscape, it is imperative that we do everything we can and everything in our power to ensure the security of Government information and networks. In this interconnected world, we have to ensure that agencies, the contractors that support them, and the citizens we serve are all protected.    I would like to start by providing an overview of OMB's role in Federal cybersecurity, discuss some recent incidents related to third-party contractors and vendors, and some of the steps OMB is taking to strengthen Federal cybersecurity practices.    OMB and my office recently announced the creation of a dedicated unit called the E-Gov Cyber Unit. This unit will conduct oversight through initiatives, such as CyberStat reviews and will drive FISMA implementation. We will continue to work closely with DHS, who is our operational partner, and with agencies who directly lead their own cybersecurity efforts. These efforts are critical in confronting today's cyber threats and improving our ability to deal with threats in the future.    In 2014 alone, several high-profile cyber incidents across our Nation made headlines for their scope, their scale, and their impact. The Federal Government and those acting on its behalf are not immune from this threat activity, as has been noted. Specifically and related to today's discussion, cyber incidents have involved vendors responsible for conducting background investigations on behalf of the Federal Government. In close partnership with DHS and other appropriate agencies, OMB responded quickly and oversaw the government-wide response to mitigate these incidents.    DHS worked closely with vendors that conduct background investigations to mitigate this incident, and OMB, in its policy and oversight role, took immediate action to address identified challenges. First, through the President's Management Council, OMB conducted a review of agencies' cyber security programs to identify risks and implementation gaps. During this response to these incidents and our subsequent review, two things became clear: first, third-party contractors and vendors were inconsistently implementing protections over sensitive data and, second, Federal agencies did not have adequate contractual language and policy direction to guide how contractors and agencies should respond to incidents.    Based on this review, agencies were directed to identify and review relevant contracts to ensure compliance with current laws and OMB guidance and, second, OMB directed an interagency effort to collect and disseminate contracting best practices relative to cybersecurity.    In closing, I think it is obvious that securing our information is a great challenge, and this will remain a core focus of this Administration. We look forward to working with Congress on legislative actions that may further protect our Nation's critical networks and systems, and I thank the committee for holding this hearing and for your commitment to improving Federal cybersecurity. When it is time, I would be pleased to answer any questions you may have.</t>
@@ -106,30 +91,18 @@
     <t xml:space="preserve">    Mr. Hurd. [Presiding] Thank you, Mr. Scott.    Ms. Seymour, you are now recognized for five minutes.</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Seymour</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Seymour. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for inviting me to participate in today's hearing to examine the cybersecurity of third-party contractors. I am happy to be here with you today to share OPM's experiences in the important area of cybersecurity.    As the Chief Information Office of the Office of Personnel Management, I am responsible for the information technology that supports OPM's mission to recruit, retain, and honor a world-class workforce. Director Archuleta tasked me with conducting a thorough assessment of the state of IT at OPM, including cybersecurity. Director Archuleta's goal, as laid out in the OPM Strategic Plan, is to innovate IT infrastructure at OPM in a way that protects sensitive information entrusted to us by the Federal workforce and the American people.    OPM and its contractors are under constant attack by advanced persistent threats and criminal actors. These adversaries are sophisticated, well funded, and focused. In an average month, OPM thwarts almost 2.5 billion confirmed attempts to hack its network. These attacks will not stop. If anything, they will increase.    While we need to focus on how to prevent attacks, we know from the NIST cybersecurity framework it is equally important that we focus on how to detect, investigate, and mitigate attacks. In the past year, OPM and some of its contractors became the victims of cyber attacks. Throughout the process of analyzing the breaches, OPM worked closely with the US-CERT at DHS, the FBI, and other agencies. We also worked with the Office of Management and Budget, the CIO Council, and the Privacy Council. OPM followed OMB protocols, informing the agency response team investigating the incidents, and making notifications.    We learned there were significant differences in our ability to understand and respond to these attacks because of the way sensitive information is exchanged, because of technical architecture, and because of the contractual relationship with the company.    The way in which the Government shares sensitive information with the company is important to understand. In one case, company-owned laptops connected directly to the OPM network; in another case, company-owned laptops connected to the company's network and then to OPM network. If laptops connect directly to the Government network, it is easier to assess their security posture and limit the exposure of the sensitive information.    The architecture of the network is important because it provides a framework for how sensitive information is stored, accessed, and exchanged, and it defines the boundaries for protecting the network. If the network is well defined and the data is segregated, it is easier to protect. A well architected network also makes it easier to investigate incidents. And, of course, network logs help us understand what might have happened during an incident.    When the Government has a well-defined relationship with a contractor that specifically addresses information security and incident management, it is easier to work with the company to obtain information and plan remediation efforts. As a result of lessons learned this past year, the agencies have collaborated with the help of OMB and the Office of Federal Procurement Policy and the CIO Council to share lessons learned. This includes contracting clauses that strengthen our relationship with contractors.    For example, at the onset of the contract, a security assessment serves as a method to review the security features in place to protect sensitive information. This assessment should be validated by an independent assessment organization. But this only provides a prospective of the security posture at a point in time. An information security continuous monitoring program is essential to enabling insight into the security posture of a system on a recurring basis.    Director Archuleta recognizes cybersecurity as an agency priority. OPM's 2016 budget request included $21 million to complete the modernization of our IT infrastructure. This funding is critical to continue the progress we have made so far in protecting data from relentless adversaries. For example, OPM is implementing information security continuous monitoring both in our own network and systems, as well as our contractor systems.    We look at security controls on a rotating, more frequent basis, identifying vulnerabilities in real time given the changing nature of threats. Plans of actions and milestones are created and tracked to remediate concerns. OPM has also grown its cybersecurity capability, which will allow us to do onsite technical inspections of contractor networks in the future.    Thank you for this opportunity to testify today. I am happy to address any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Ms. Seymour.    Mr. Wilshusen, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Wilshusen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairman Hurd, Ranking Member Cummings, and members of the committee, thank you for the opportunity to testify at today's hearing.    As you know, Federal agencies and their contractors depend on interconnected networks and computer systems to carry out mission-related functions. The security of these networks and systems is vital to maintaining public confidence and preserving our Nation's security, prosperity, and well-being.    Safeguarding Federal computer systems and information, however, is a continuing concern. The number of information security incidents, both cyber and non-cyber, reported by Federal agencies continues to rise, increasing from about 5,500 in fiscal year 2006 to over 67,000 in fiscal year 2014. Similarly, the number of incidents involving personal information more than doubled in recent years, to over 27,600 in 2014.    As discussed with your staff, my testimony today will describe cyber threats affecting Federal and contractor systems, and the challenges in securing them.    Before I begin, Mr. Chairman, if I may, I would like to recognize my esteemed colleagues who were instrumental in developing my written statement. With me today is Larry Crossland, an Assistant Director of Information Security, who led this issue. In addition, Rosanna Guerrero, Lee McCracken, Fatima Jahan, Chris Bazinsky, and Bill Cook, who are all back at the office, also made significant contributions.    Mr. Chairman, the Federal Government and its contractors face an evolving array of cyber threats. These threats can be intentional or unintentional. Unintentional threats can be caused by defective computer equipment, careless or poorly trained employees, or natural disasters that inadvertently disrupt systems.    Intentional threats can be both targeted and untargeted attacks from a variety of sources, including criminal groups, hackers, disgruntled insiders, nations, and terrorists. These sources vary in terms of their capabilities, willingness to act, and motives, which can include seeking monetary gain or pursing an economic, political, or military advantage. In particular, adversaries possessing sophisticated levels of expertise and abundant resources, sometimes referred to as advanced persistent threats, pose increasing risks.    Cyber adversaries have a variety of tools and techniques to perpetuate and perpetrate attacks. These include malicious software, social engineering, phishing, denial of service, zero day exploits, and, in sophisticated attacks, may use a combination of these and other techniques.    The number of cyber attacks vastly increases the reach and impact due to the fact that attackers do not need to be physically close to the victims and can more easily remain anonymous. The risks posed by cyber attacks is heightened by the vulnerabilities in Federal networks and systems.    Specifically, weaknesses in security controls continue to threaten the confidentiality, integrity, and availability of the systems supporting Federal operations. Most major Federal agencies have deficient information security. For fiscal year 2014, 19 of the 24 major agencies reported inadequate information system controls for financial reporting purposes, and inspectors general at 23 of these agencies cited it as a major management challenge.    Federal agencies face several challenges in protecting their systems. These include designing and implementing risk-based information security systems and programs, addressing cybersecurity for building and access control systems, enhancing oversight of contractors providing IT services, improving security incident response activities, responding to breaches of personally identifiable information, and implementing security privacy programs at small agencies.    Underscoring the importance of these matters, we once again designated Federal information security as a government-wide, high-risk area in this year's update to the high-risk report, a designation that has remained in place since 1997. This year we also expanded the area to include protecting the privacy of personally identifiable information.    Until Federal agencies successfully address these challenges, including implementing the hundreds of outstanding recommendations made by GAO and agencies' inspectors general, Federal systems and information will remain at increased and unnecessary risk of unauthorized disclosure, modification, and loss.    Mr. Chairman, Ranking Member Cummings, members of the committee, this concludes my statement. I would be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, sir.    Dr. Fischer, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Fischer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fischer. Good afternoon, Chairman Hurd, Ranking Member Cummings, and distinguished members of the committee. On behalf of the Congressional Research Service, thank you for the opportunity to testify today.    I will try to put what you have heard from prior witnesses in context with respect to both long-term challenges and near-term needs in cybersecurity and the Federal roles in addressing them.    The technologies that process and communicate information have become ubiquitous and are increasingly integral to almost every facet of modern life. These technologies and the information they manage are collectively known as cyberspace, which may well be the most rapidly evolving technology space in human history. This growth refers to not only how big cyberspace is, but also to what it is: social media, mobile devices, cloud computing big data, and the Internet of things. These are all recent developments and all are increasingly important facets of cyberspace. It is difficult to predict how cyberspace will continue to evolve, but it is probably safe to expect the evolution to continue for many years.    That is not to say that all of cyberspace has changed. Basic aspects of how the Internet works are decades old, and obsolete hardware and software may persist for many years. These characteristics of the cyberspace environment present a daunting challenge for cybersecurity, whether for Federal agencies, third-party contractors and vendors, or even the general public.    But design incentives and consensus are also major long-term challenges for cybersecurity. Building security into the design of cyberspace has proven to be difficult. The incentive structure within cyberspace does not particularly favor cybersecurity, and significant barriers persist for developing consensus on what cybersecurity involves and how to implement it effectively.    Furthermore, no matter how important those four challenges are, they do not diminish the need to secure cyberspace in the short-term. That includes reducing risk by removing threats, hardening vulnerabilities, and taking steps to lessen the impacts of cyber attacks. It also includes addressing needs such as reducing barriers to information sharing, building a capable cybersecurity workforce, and fighting cybercrime.    Federal agencies play significant roles in addressing both near-term needs and long-term challenges. Under FISMA, all Federal agencies are responsible for securing their own systems. Private sector contractors acting on behalf of Federal agencies must also meet FISMA requirements. In fiscal year 2014, Federal agencies spent $12.7 billion on those activities, equivalent to about 13 percent of agency information technology budgets.    Now, Federal agencies also have responsibilities for other cybersecurity functions, as summarized in my written testimony. Research and development, along with education, are the two probably most focused on addressing long-term challenges. Others, such as technical standards and support, law enforcement, and regulation focus more on meeting immediate needs.    The Department of Defense, as an example, is responsible for military operations and protection of its own systems, in addition to some other cybersecurity activities. DOD includes the National Security Agency, which is also a member of the intelligence community. DOD has the largest annual investment of any Federal agency both in information technology and in cybersecurity.    The Department of Homeland Security fulfills several cybersecurity functions, developing, for example, new cybersecurity technologies and other tools. It coordinates the operational security of Federal systems under FISMA, including information sharing and technical support. It also plays a significant role in law enforcement related to cybercrime, with DOJ, of course, being the lead agency in that regard.    But perhaps it is best known as coordinating Federal efforts to improve the security of critical infrastructure, most of which is controlled by the private sector. Those activities include information sharing incident response and technical support. Most private sector department activities are voluntary, but DHS also has some regulatory authority for the transportation and chemical sectors.    Now, the role of Federal regulation in cybersecurity has been a significant source of controversy, along with how to remove barriers to information sharing while protecting proprietary and personal information, and the proper roles of different Federal agencies in various cybersecurity activities, including regulation.    With respect to specifically the third-party vendors and contractors, it may be useful to note that a large proportion, roughly half, of recent Federal investment in information technology has been for procurement and acquisition of products and services. In addition, of course, vendors and contractors who provide other kinds of products and services increasingly rely on information technology in their businesses.    Also, I should mention that NIST is in the process of developing guidance for agencies to apply to other non-Federal systems that contain or process controlled, but unclassified, Federal information.    That concludes my testimony. Once again, thank you for asking me to appear before you today.</t>
   </si>
   <si>
@@ -139,9 +112,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Well, thank you, Mr. Chairman.    Let me ask, first, a general question. It appears that there is a fairly significant increase. The information I have is just since 2014 a 15 percent increase in incidents of some of the security risks or incidences. Is that correct, Mr. Scott? So we are seeing a fairly significant increase? Maybe each one of you could tell me what we are seeing overall or what you anticipate we are facing. Is this something that was just the last year or are we now expecting this to continue to increase?</t>
   </si>
   <si>
@@ -241,9 +211,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    I also want to just commend my colleague, Mr. Cummings, the gentleman from Maryland. I remember over the past couple of years we had the breaches at JPMorgan and Home Depot and Target, where the gentleman from Maryland asked to have a hearing like this in the face of that breach, and he was denied by the previous chairman.    I know when we had the 800,000 workers that were affected in the U.S. Postal Service breach and the State Department breach, again the ranking member asked to have a hearing on the breaches and cybersecurity then and again we were denied by the previous chairman.    I just want to say that it probably reflects the new leadership, the new chairman, the gentleman from Utah, Mr. Chaffetz, that we are finally addressing this problem, and I think it bodes well not just for the committee and the work we are doing, but also I think for the American people, the people that we are supposed to be protecting. But again I want to thank Mr. Cummings for his leadership on this issue.    I happened to run across a report that was done by the New York State Department of Financial Services, and I would ask unanimous consent that we might enter this into the record, Mr. Chairman.</t>
   </si>
   <si>
@@ -265,9 +232,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    Mr. Scott, in your role as FED CIO, you will have a great deal of influence over IT policies and practices that Federal agencies must implement. Given your role as a technologist and an IT specialist with years of private sector experience, can you give us a general sense of your impression of the State and Federal information security?</t>
   </si>
   <si>
@@ -301,9 +265,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman and Ranking Member, and all of the panelists today for focusing on this important issue. As we speak, they are debating cybersecurity on the floor. It is one of the few areas where there is a joint cause, a joint goal, and joint cooperation because it is so serious, such a threat to the economy and to privacy and really to our technology and security of our Country.    We, unfortunately, had in 2014 several high-profile data breaches of Federal agencies, breaches really that happened because of the contractors in the case of the Postal Service data breach, where over 800,000 current and former employees had their personal information compromised; and the loss of sensitive personal information of tens of thousands of Federal employees occurred because of data breaches of USIS and KeyPoint, two very large Federal contractors.    So I would like to hear what lessons were learned from these experiences and how it plans to apply those lessons to minimize the risk of these breaches in the future, and we will start with you, Ms. Seymour, from OPM. What are the chief lessons that you learned and how are the contractors cooperating? And anyone else who would like to jump in and add to the chief lessons that we have learned from these unfortunate situations.</t>
   </si>
   <si>
@@ -361,9 +322,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Dr. Fischer, let me begin with you. Just from a general guess or estimation, how often are Federal agencies attacked by nation states?</t>
   </si>
   <si>
@@ -442,9 +400,6 @@
     <t xml:space="preserve">    Mr. Hurd. Thank you.    Now I would like to recognize Mr. Cartwright, from Pennsylvania, for five minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    Over the last few years a number of high-profile network compromises have left the private personal information on literally millions of people exposed, often taken from supposedly secure private sector and Government computer networks. Some of the attacks appear to come from foreign governments, as Mr. Hice was just exploring; some of them simply from criminals.    The highly publicized compromise of JPMorgan Chase's network let the personal information of 76 million households and 7 million small business customers flow out of company servers. Over the past eight years, the private records of nearly 30 million New Yorkers were exposed by data breaches. The USIS and KeyPoint compromises resulted in the theft of sensitive information from the background investigations of nearly 70,000 employees of the Federal Government.    Now, in a lot of compromises like this, what mitigates some of the damage done is data encryption. While it is obviously unfortunate if a company or agency is hacked, employees or customers can take some solace in the fact that, if their data was encrypted, their personal information is not at risk, even though it was exposed. If you can't read it, you can't use it.    Mr. Wilshusen, my question is for you. Over the years, GAO has conducted a number of assessments of cyber issues related to the Federal Government. When agencies do not have encryption policies in place, how does that affect what you are finding in your investigations?</t>
   </si>
   <si>
@@ -484,9 +439,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thank you to the witnesses.    When we have victims of cyber attacks, one of the issues is attribution. Where did this come from? I know that they emanate in Eastern Europe, Russia, China, whatever. So how do the agencies work with Homeland Security, the FBI, and other law enforcement in order to trace attacks back to the source when they happen?    Mr. Scott, do you want to give that a shot?</t>
   </si>
   <si>
@@ -538,9 +490,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Welcome. Some of the recent major data breaches at Government agencies and Government contractors have specifically targeted personally identifying information, or PII. For example, the U.S. Postal Service data breach, over 800,000 of its current and former employees' personal information was compromised. USIS and KeyPoint contractors that perform background checks for the Federal Government suffered breaches last year also, potentially exposing tens of thousands of Federal employees' personal information.    Mr. Wilshusen, what are some of the challenges agencies face in working with contractors?</t>
   </si>
   <si>
@@ -578,9 +527,6 @@
   </si>
   <si>
     <t>400295</t>
-  </si>
-  <si>
-    <t>Eleanor Holmes Norton</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I just have a few brief questions.    I am trying to find an industry standard, if you will, because it seems as if both the public and private sector are having the same kinds of problems. Daily news. Both sectors have it. States have it. Everybody has it. In part it is because, whether we face it or not, this technology is relatively new and we still are working our way through it.    I am wondering, don't we contract out most of this work, most of our work to contractors and vendors, as opposed to doing work in-house? I mean, I assume that NASA does work in-house, or maybe they even contract some out. But is most of this work contracted out?</t>
@@ -1174,11 +1120,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1198,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1226,11 +1168,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1250,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1276,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1304,11 +1240,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1330,11 +1264,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1354,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1380,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1406,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1432,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1458,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1484,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1510,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1536,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1562,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1588,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1614,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1640,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1666,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1692,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1718,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1744,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1770,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1796,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1822,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1848,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1874,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1900,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1926,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1952,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1978,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2004,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2030,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2056,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2082,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2108,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2134,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2160,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2186,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2212,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2238,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2264,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2290,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2316,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2342,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2368,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2394,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2420,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2446,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2472,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2498,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2524,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2550,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2576,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2602,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2628,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2654,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2680,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2706,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2732,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2758,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2784,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2810,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2836,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2862,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2888,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2914,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2940,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2966,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2992,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3018,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3044,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3070,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3096,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3122,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>95</v>
-      </c>
-      <c r="H77" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3148,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3174,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
-      </c>
-      <c r="G79" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3200,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3226,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3252,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3278,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3304,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3330,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
-      </c>
-      <c r="G85" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3356,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3382,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
-      </c>
-      <c r="G87" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3408,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3434,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>114</v>
-      </c>
-      <c r="G89" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3460,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3486,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>114</v>
-      </c>
-      <c r="G91" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3512,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3538,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3564,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3590,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>101</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
-      <c r="H95" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3616,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3642,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3668,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3694,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3720,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3746,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3772,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3798,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3824,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3850,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3876,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3902,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3928,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3954,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3980,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4006,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
-      </c>
-      <c r="G111" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4032,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4058,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
-      </c>
-      <c r="G113" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4084,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4110,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4136,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4162,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4188,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
-      </c>
-      <c r="G118" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4214,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4240,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4266,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>155</v>
-      </c>
-      <c r="G121" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4292,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4318,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
-      </c>
-      <c r="G123" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4344,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4370,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
-      </c>
-      <c r="G125" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4396,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4422,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>155</v>
-      </c>
-      <c r="G127" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4448,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4474,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>155</v>
-      </c>
-      <c r="G129" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4500,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4526,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
-      </c>
-      <c r="G131" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4552,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4578,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>155</v>
-      </c>
-      <c r="G133" t="s">
-        <v>156</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4604,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4630,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
+        <v>140</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>155</v>
-      </c>
-      <c r="G135" t="s">
-        <v>156</v>
-      </c>
-      <c r="H135" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4656,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4682,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
-      </c>
-      <c r="G137" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4708,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4734,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4760,13 +4430,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4786,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
-      </c>
-      <c r="G141" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4812,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4838,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
-      </c>
-      <c r="G143" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4864,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4890,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
-      </c>
-      <c r="G145" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4916,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4942,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" t="s">
-        <v>174</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4968,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4994,13 +4646,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>187</v>
-      </c>
-      <c r="G149" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5020,13 +4670,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5046,13 +4694,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>187</v>
-      </c>
-      <c r="G151" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5072,13 +4718,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
-      </c>
-      <c r="G152" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5098,13 +4742,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>187</v>
-      </c>
-      <c r="G153" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5124,13 +4766,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5150,13 +4790,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>187</v>
-      </c>
-      <c r="G155" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5176,13 +4814,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
-      </c>
-      <c r="G156" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5202,13 +4838,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
-      </c>
-      <c r="G157" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5228,13 +4862,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
-      </c>
-      <c r="G158" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5254,13 +4886,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>187</v>
-      </c>
-      <c r="G159" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5280,13 +4910,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5306,13 +4934,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>187</v>
-      </c>
-      <c r="G161" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5332,13 +4958,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
-      </c>
-      <c r="G162" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5358,13 +4982,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>187</v>
-      </c>
-      <c r="G163" t="s">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5384,13 +5006,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
-      </c>
-      <c r="G164" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5410,13 +5030,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
+        <v>170</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
         <v>187</v>
-      </c>
-      <c r="G165" t="s">
-        <v>188</v>
-      </c>
-      <c r="H165" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5436,13 +5054,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5462,13 +5078,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5488,13 +5102,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5514,13 +5126,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
-      </c>
-      <c r="G169" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5540,13 +5150,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5566,13 +5174,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5592,13 +5198,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5618,13 +5222,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
-      </c>
-      <c r="G173" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5644,13 +5246,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5670,13 +5270,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
-      </c>
-      <c r="G175" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5696,13 +5294,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5722,13 +5318,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
-      </c>
-      <c r="G177" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5748,13 +5342,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5774,13 +5366,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5800,13 +5390,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5826,13 +5414,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5852,13 +5438,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5878,13 +5462,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
-      </c>
-      <c r="G183" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5904,13 +5486,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5930,13 +5510,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
-      </c>
-      <c r="G185" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5956,13 +5534,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5982,13 +5558,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6008,13 +5582,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6034,13 +5606,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6060,13 +5630,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6086,13 +5654,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6112,13 +5678,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6138,13 +5702,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6164,13 +5726,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6190,13 +5750,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6216,13 +5774,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6242,13 +5798,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6268,13 +5822,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6294,13 +5846,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6320,13 +5870,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
-      </c>
-      <c r="G200" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6346,13 +5894,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6372,13 +5918,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
-      </c>
-      <c r="G202" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6398,13 +5942,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6424,13 +5966,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>21</v>
-      </c>
-      <c r="G204" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6450,13 +5990,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
-      </c>
-      <c r="G205" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6476,13 +6014,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>21</v>
-      </c>
-      <c r="G206" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6502,13 +6038,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6528,13 +6062,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>21</v>
-      </c>
-      <c r="G208" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6554,13 +6086,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
-      </c>
-      <c r="G209" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6580,13 +6110,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6606,13 +6134,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
-      </c>
-      <c r="G211" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6632,13 +6158,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6658,13 +6182,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>21</v>
-      </c>
-      <c r="G213" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6684,13 +6206,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412270</t>
   </si>
   <si>
+    <t>Chaffetz</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Government Reform will come to order.    Without objection, the chair is authorized to declare a recess at any time.    One of the most serious national security challenges we currently face as a Nation is the security of our Country's information and communications infrastructure. I am encouraged this committee is leading a bipartisan effort to address our Government's cybersecurity, and I want to thank Ranking Member Cummings for bringing this issue to the committee's attention and for his tenacity in insisting that we address this in an aggressive way and, thus, we are here today.    The stakes are high. Hackers are targeting extremely sensitive information related to our national security. Hackers recently hit the White House, State Department networks. They are accessing a range of sensitive information. But these are not isolated incidents. Cyber attacks against government assets are becoming more frequent and they are more sophisticated then ever. Over the past eight years, the number of information security incidents has risen by more than 1,000 percent, if not more, and they are happening at the private sector at an increasing and alarming rate.    One of the members of our team that knows a lot about this we are proud to have as the subcommittee chairman on our IT Subcommittee is the general from Texas, Mr. Hurd. I would like to give him time at this point.</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Mr. Chairman. I join you in thanking Ranking Member Cummings for bringing this important issue to the committee's attention.    This is not a new problem. The Government Accountability Office has identified the security of Federal information systems and critical infrastructure as a government-wide high-risk issue every year since 1997. Congress recently took action to address the cybersecurity threat. Last year we passed an update to the Federal Information Security Management Act, or FISMA, of 2014. This committee, and particularly the IT Subcommittee, which I chair, intends to closely monitor the implementation of FISMA 2014 because FISMA is the backbone of the Federal response to the cybersecurity threat.    A key aspect of these reforms was increased accountability and transparency for OMB and DHS and all Federal agencies with regard to cybersecurity, and Federal agencies are now required to report to Congress when their networks are hacked. This increased transparency will allow Congress to better understand how our Government is protecting some of our most sensitive information.    Concerns about cybersecurity are not limited to government networks. Hackers have successfully breached the networks of government contractors like USIS and KeyPoint. Their computer networks contain extremely sensitive information about thousands of Federal employees cleared to access classified information. In fact, almost one-third of all personnel who provide security services at the 24 major Federal agencies are contractors. So we have to make sure government contractors are protecting the information we entrust them to protect.    After all, as the chairman said, if one of our Nation's most secure networks, the White House, is vulnerable and susceptible to these attacks, then how do we know to what extent other agencies and contractors are preparing themselves?    Mr. Chairman, I look forward to working with you and the ranking members and members on both sides of the aisle in this process. I yield back.</t>
   </si>
   <si>
@@ -67,12 +82,24 @@
     <t>400090</t>
   </si>
   <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>Elijah</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. I thank you for agreeing to my request to hold today's hearing on the cybersecurity challenges posed by contractors and third-party vendors.    Over the past several years we have seen an alarming increase in the number of major data breaches that originated with contractors and vendors. Just last year, Target and Home Depot were breached by hackers who gained access to the retailers' networks by using credentials stolen from the computer systems of vendors that did business with these companies.    Federal agencies are not immune. The breach of the Postal Service last year originated from a phishing attack on a contractor for the agency. Last year, contractors with the Office of Personnel Management were subjected to a sophisticated cyber attack and tens of thousands of sensitive personnel records were compromised. One of those contractors was a company called USIS. At the time, it was the largest provider of background information investigative services to the Federal Government.    USIS is currently at the center of a billion dollar civil fraud suit brought by the Justice Department for allegedly dumping incomplete background investigation reports to OPM over a four and a half year time period. According to the Justice Department, USIS deliberately took this action to increase profits. Apparently, the company's desire to increase profits also may have been to blame for its failure to make cyber investments necessary to secure the large amounts of sensitive personal information it should have been protecting on its networks.    On September 3rd, 2014, committee staff received a briefing from security experts at the Department of Homeland Security, the Office of Director of National Intelligence, and OPM, all of whom analyzed the cyber attack against USIS. While much of that briefing was sensitive, one point may be discussed publicly. Press accounts had initially reported that the attack may have compromised the personal information of up to 27,000 Federal employees.    However, government cybersecurity experts believe this number is a floor and not a ceiling. The actual number of individuals affected by USIS's data breach is still not yet known, but these experts believe that the personal information of many more Federal employees may have been compromised.    Unfortunately, investigating the USIS data breach has been particularly challenging. That is because neither USIS nor its parent company, Altegrity, have fully complied with this committee's request for answers.    Today's hearing is a recognition that the Federal Government faces increased cyber risks from contractors. But as I mentioned earlier, this is a challenge the private sector faces as well.    I have repeatedly pressed for more rigorous oversight of cybersecurity in both private and public sectors. Although we had little success in the previous Congress, I am encouraged by the bipartisan approach we have taken on this very critical issue and I hope it continues.    So, Mr. Chairman, I want to thank you again for agreeing to hold today's hearing. In addition, I understand that our staffs are meeting tomorrow to discuss a possible follow-on hearing with some of these private sector entities. And I want to thank you for continuing to work with me.    While our ranking member is not here yet, I would yield a minute to my colleague, Mr. Connolly, who has worked very hard on these issues over the years. He might have a brief statement.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the ranking member for his generosity.    Obviously, cybersecurity is a sophisticated and evolving national challenge. Meeting the daunting threat requires a broad whole-Government and industry approach that simultaneously enhances what I believe are the three pillars of an effective approach to cybersecurity: people, policy, and practices.    No better demonstration of this importance of individuals in securing information systems than the truism that the number one cybersecurity threat or vulnerability facing any company is the behavior of its own employees. Indeed, the best cybersecurity policies in the world won't amount to a hill of beans if an organization's culture does not translate good policy into better practice.    So I really look forward to hearing the testimony today. I look forward to working with you, Mr. Chairman, and you, Mr. Cummings, as we move forward with some legislative remedies to what I think is a vexing and growing problem that affects both the domestic and, frankly, defense and intelligence sides of the Federal Government. Thank you.</t>
   </si>
   <si>
@@ -85,24 +112,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Chairman Chaffetz and Ranking Member Cummings and members of the committee. Thank you for the opportunity to appear before you today.    I started as the Federal Chief Information Officer just over two months ago, and I am excited for the opportunity to speak with you today about OMB's role in Federal cybersecurity. I am also pleased to join the panel, as everyone here has an important role to play in strengthening cybersecurity.    Federal cybersecurity oversight is one of my responsibilities as Federal CIO and head of the OMB Office of E-Government and Information Technology. My office is responsible for two things: first, developing and overseeing the implementation of Federal IT policy and, second, through the United States Digital Service, providing onsite expertise to agencies with high impact facing IT programs. My team is also leading the government-wide implementation of the Federal Information Technology Acquisition Reform Act, known as FITARA, and the Federal Information Security Modernization Act of 2014, FISMA, both of which passed last year.    Strengthening Federal cybersecurity is one of the Administration's top priorities and a duty that I take very seriously. Having recently left a private sector CIO role, I can attest to the fact that having a strong cybersecurity program is critical to ensuring mission success. This is no different in the Federal Government. Given the evolving threat landscape, it is imperative that we do everything we can and everything in our power to ensure the security of Government information and networks. In this interconnected world, we have to ensure that agencies, the contractors that support them, and the citizens we serve are all protected.    I would like to start by providing an overview of OMB's role in Federal cybersecurity, discuss some recent incidents related to third-party contractors and vendors, and some of the steps OMB is taking to strengthen Federal cybersecurity practices.    OMB and my office recently announced the creation of a dedicated unit called the E-Gov Cyber Unit. This unit will conduct oversight through initiatives, such as CyberStat reviews and will drive FISMA implementation. We will continue to work closely with DHS, who is our operational partner, and with agencies who directly lead their own cybersecurity efforts. These efforts are critical in confronting today's cyber threats and improving our ability to deal with threats in the future.    In 2014 alone, several high-profile cyber incidents across our Nation made headlines for their scope, their scale, and their impact. The Federal Government and those acting on its behalf are not immune from this threat activity, as has been noted. Specifically and related to today's discussion, cyber incidents have involved vendors responsible for conducting background investigations on behalf of the Federal Government. In close partnership with DHS and other appropriate agencies, OMB responded quickly and oversaw the government-wide response to mitigate these incidents.    DHS worked closely with vendors that conduct background investigations to mitigate this incident, and OMB, in its policy and oversight role, took immediate action to address identified challenges. First, through the President's Management Council, OMB conducted a review of agencies' cyber security programs to identify risks and implementation gaps. During this response to these incidents and our subsequent review, two things became clear: first, third-party contractors and vendors were inconsistently implementing protections over sensitive data and, second, Federal agencies did not have adequate contractual language and policy direction to guide how contractors and agencies should respond to incidents.    Based on this review, agencies were directed to identify and review relevant contracts to ensure compliance with current laws and OMB guidance and, second, OMB directed an interagency effort to collect and disseminate contracting best practices relative to cybersecurity.    In closing, I think it is obvious that securing our information is a great challenge, and this will remain a core focus of this Administration. We look forward to working with Congress on legislative actions that may further protect our Nation's critical networks and systems, and I thank the committee for holding this hearing and for your commitment to improving Federal cybersecurity. When it is time, I would be pleased to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. [Presiding] Thank you, Mr. Scott.    Ms. Seymour, you are now recognized for five minutes.</t>
   </si>
   <si>
+    <t>Seymour</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Seymour. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for inviting me to participate in today's hearing to examine the cybersecurity of third-party contractors. I am happy to be here with you today to share OPM's experiences in the important area of cybersecurity.    As the Chief Information Office of the Office of Personnel Management, I am responsible for the information technology that supports OPM's mission to recruit, retain, and honor a world-class workforce. Director Archuleta tasked me with conducting a thorough assessment of the state of IT at OPM, including cybersecurity. Director Archuleta's goal, as laid out in the OPM Strategic Plan, is to innovate IT infrastructure at OPM in a way that protects sensitive information entrusted to us by the Federal workforce and the American people.    OPM and its contractors are under constant attack by advanced persistent threats and criminal actors. These adversaries are sophisticated, well funded, and focused. In an average month, OPM thwarts almost 2.5 billion confirmed attempts to hack its network. These attacks will not stop. If anything, they will increase.    While we need to focus on how to prevent attacks, we know from the NIST cybersecurity framework it is equally important that we focus on how to detect, investigate, and mitigate attacks. In the past year, OPM and some of its contractors became the victims of cyber attacks. Throughout the process of analyzing the breaches, OPM worked closely with the US-CERT at DHS, the FBI, and other agencies. We also worked with the Office of Management and Budget, the CIO Council, and the Privacy Council. OPM followed OMB protocols, informing the agency response team investigating the incidents, and making notifications.    We learned there were significant differences in our ability to understand and respond to these attacks because of the way sensitive information is exchanged, because of technical architecture, and because of the contractual relationship with the company.    The way in which the Government shares sensitive information with the company is important to understand. In one case, company-owned laptops connected directly to the OPM network; in another case, company-owned laptops connected to the company's network and then to OPM network. If laptops connect directly to the Government network, it is easier to assess their security posture and limit the exposure of the sensitive information.    The architecture of the network is important because it provides a framework for how sensitive information is stored, accessed, and exchanged, and it defines the boundaries for protecting the network. If the network is well defined and the data is segregated, it is easier to protect. A well architected network also makes it easier to investigate incidents. And, of course, network logs help us understand what might have happened during an incident.    When the Government has a well-defined relationship with a contractor that specifically addresses information security and incident management, it is easier to work with the company to obtain information and plan remediation efforts. As a result of lessons learned this past year, the agencies have collaborated with the help of OMB and the Office of Federal Procurement Policy and the CIO Council to share lessons learned. This includes contracting clauses that strengthen our relationship with contractors.    For example, at the onset of the contract, a security assessment serves as a method to review the security features in place to protect sensitive information. This assessment should be validated by an independent assessment organization. But this only provides a prospective of the security posture at a point in time. An information security continuous monitoring program is essential to enabling insight into the security posture of a system on a recurring basis.    Director Archuleta recognizes cybersecurity as an agency priority. OPM's 2016 budget request included $21 million to complete the modernization of our IT infrastructure. This funding is critical to continue the progress we have made so far in protecting data from relentless adversaries. For example, OPM is implementing information security continuous monitoring both in our own network and systems, as well as our contractor systems.    We look at security controls on a rotating, more frequent basis, identifying vulnerabilities in real time given the changing nature of threats. Plans of actions and milestones are created and tracked to remediate concerns. OPM has also grown its cybersecurity capability, which will allow us to do onsite technical inspections of contractor networks in the future.    Thank you for this opportunity to testify today. I am happy to address any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Ms. Seymour.    Mr. Wilshusen, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Wilshusen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairman Hurd, Ranking Member Cummings, and members of the committee, thank you for the opportunity to testify at today's hearing.    As you know, Federal agencies and their contractors depend on interconnected networks and computer systems to carry out mission-related functions. The security of these networks and systems is vital to maintaining public confidence and preserving our Nation's security, prosperity, and well-being.    Safeguarding Federal computer systems and information, however, is a continuing concern. The number of information security incidents, both cyber and non-cyber, reported by Federal agencies continues to rise, increasing from about 5,500 in fiscal year 2006 to over 67,000 in fiscal year 2014. Similarly, the number of incidents involving personal information more than doubled in recent years, to over 27,600 in 2014.    As discussed with your staff, my testimony today will describe cyber threats affecting Federal and contractor systems, and the challenges in securing them.    Before I begin, Mr. Chairman, if I may, I would like to recognize my esteemed colleagues who were instrumental in developing my written statement. With me today is Larry Crossland, an Assistant Director of Information Security, who led this issue. In addition, Rosanna Guerrero, Lee McCracken, Fatima Jahan, Chris Bazinsky, and Bill Cook, who are all back at the office, also made significant contributions.    Mr. Chairman, the Federal Government and its contractors face an evolving array of cyber threats. These threats can be intentional or unintentional. Unintentional threats can be caused by defective computer equipment, careless or poorly trained employees, or natural disasters that inadvertently disrupt systems.    Intentional threats can be both targeted and untargeted attacks from a variety of sources, including criminal groups, hackers, disgruntled insiders, nations, and terrorists. These sources vary in terms of their capabilities, willingness to act, and motives, which can include seeking monetary gain or pursing an economic, political, or military advantage. In particular, adversaries possessing sophisticated levels of expertise and abundant resources, sometimes referred to as advanced persistent threats, pose increasing risks.    Cyber adversaries have a variety of tools and techniques to perpetuate and perpetrate attacks. These include malicious software, social engineering, phishing, denial of service, zero day exploits, and, in sophisticated attacks, may use a combination of these and other techniques.    The number of cyber attacks vastly increases the reach and impact due to the fact that attackers do not need to be physically close to the victims and can more easily remain anonymous. The risks posed by cyber attacks is heightened by the vulnerabilities in Federal networks and systems.    Specifically, weaknesses in security controls continue to threaten the confidentiality, integrity, and availability of the systems supporting Federal operations. Most major Federal agencies have deficient information security. For fiscal year 2014, 19 of the 24 major agencies reported inadequate information system controls for financial reporting purposes, and inspectors general at 23 of these agencies cited it as a major management challenge.    Federal agencies face several challenges in protecting their systems. These include designing and implementing risk-based information security systems and programs, addressing cybersecurity for building and access control systems, enhancing oversight of contractors providing IT services, improving security incident response activities, responding to breaches of personally identifiable information, and implementing security privacy programs at small agencies.    Underscoring the importance of these matters, we once again designated Federal information security as a government-wide, high-risk area in this year's update to the high-risk report, a designation that has remained in place since 1997. This year we also expanded the area to include protecting the privacy of personally identifiable information.    Until Federal agencies successfully address these challenges, including implementing the hundreds of outstanding recommendations made by GAO and agencies' inspectors general, Federal systems and information will remain at increased and unnecessary risk of unauthorized disclosure, modification, and loss.    Mr. Chairman, Ranking Member Cummings, members of the committee, this concludes my statement. I would be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, sir.    Dr. Fischer, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Fischer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fischer. Good afternoon, Chairman Hurd, Ranking Member Cummings, and distinguished members of the committee. On behalf of the Congressional Research Service, thank you for the opportunity to testify today.    I will try to put what you have heard from prior witnesses in context with respect to both long-term challenges and near-term needs in cybersecurity and the Federal roles in addressing them.    The technologies that process and communicate information have become ubiquitous and are increasingly integral to almost every facet of modern life. These technologies and the information they manage are collectively known as cyberspace, which may well be the most rapidly evolving technology space in human history. This growth refers to not only how big cyberspace is, but also to what it is: social media, mobile devices, cloud computing big data, and the Internet of things. These are all recent developments and all are increasingly important facets of cyberspace. It is difficult to predict how cyberspace will continue to evolve, but it is probably safe to expect the evolution to continue for many years.    That is not to say that all of cyberspace has changed. Basic aspects of how the Internet works are decades old, and obsolete hardware and software may persist for many years. These characteristics of the cyberspace environment present a daunting challenge for cybersecurity, whether for Federal agencies, third-party contractors and vendors, or even the general public.    But design incentives and consensus are also major long-term challenges for cybersecurity. Building security into the design of cyberspace has proven to be difficult. The incentive structure within cyberspace does not particularly favor cybersecurity, and significant barriers persist for developing consensus on what cybersecurity involves and how to implement it effectively.    Furthermore, no matter how important those four challenges are, they do not diminish the need to secure cyberspace in the short-term. That includes reducing risk by removing threats, hardening vulnerabilities, and taking steps to lessen the impacts of cyber attacks. It also includes addressing needs such as reducing barriers to information sharing, building a capable cybersecurity workforce, and fighting cybercrime.    Federal agencies play significant roles in addressing both near-term needs and long-term challenges. Under FISMA, all Federal agencies are responsible for securing their own systems. Private sector contractors acting on behalf of Federal agencies must also meet FISMA requirements. In fiscal year 2014, Federal agencies spent $12.7 billion on those activities, equivalent to about 13 percent of agency information technology budgets.    Now, Federal agencies also have responsibilities for other cybersecurity functions, as summarized in my written testimony. Research and development, along with education, are the two probably most focused on addressing long-term challenges. Others, such as technical standards and support, law enforcement, and regulation focus more on meeting immediate needs.    The Department of Defense, as an example, is responsible for military operations and protection of its own systems, in addition to some other cybersecurity activities. DOD includes the National Security Agency, which is also a member of the intelligence community. DOD has the largest annual investment of any Federal agency both in information technology and in cybersecurity.    The Department of Homeland Security fulfills several cybersecurity functions, developing, for example, new cybersecurity technologies and other tools. It coordinates the operational security of Federal systems under FISMA, including information sharing and technical support. It also plays a significant role in law enforcement related to cybercrime, with DOJ, of course, being the lead agency in that regard.    But perhaps it is best known as coordinating Federal efforts to improve the security of critical infrastructure, most of which is controlled by the private sector. Those activities include information sharing incident response and technical support. Most private sector department activities are voluntary, but DHS also has some regulatory authority for the transportation and chemical sectors.    Now, the role of Federal regulation in cybersecurity has been a significant source of controversy, along with how to remove barriers to information sharing while protecting proprietary and personal information, and the proper roles of different Federal agencies in various cybersecurity activities, including regulation.    With respect to specifically the third-party vendors and contractors, it may be useful to note that a large proportion, roughly half, of recent Federal investment in information technology has been for procurement and acquisition of products and services. In addition, of course, vendors and contractors who provide other kinds of products and services increasingly rely on information technology in their businesses.    Also, I should mention that NIST is in the process of developing guidance for agencies to apply to other non-Federal systems that contain or process controlled, but unclassified, Federal information.    That concludes my testimony. Once again, thank you for asking me to appear before you today.</t>
   </si>
   <si>
@@ -112,6 +151,12 @@
     <t>400273</t>
   </si>
   <si>
+    <t>Mica</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mica. Well, thank you, Mr. Chairman.    Let me ask, first, a general question. It appears that there is a fairly significant increase. The information I have is just since 2014 a 15 percent increase in incidents of some of the security risks or incidences. Is that correct, Mr. Scott? So we are seeing a fairly significant increase? Maybe each one of you could tell me what we are seeing overall or what you anticipate we are facing. Is this something that was just the last year or are we now expecting this to continue to increase?</t>
   </si>
   <si>
@@ -211,6 +256,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    I also want to just commend my colleague, Mr. Cummings, the gentleman from Maryland. I remember over the past couple of years we had the breaches at JPMorgan and Home Depot and Target, where the gentleman from Maryland asked to have a hearing like this in the face of that breach, and he was denied by the previous chairman.    I know when we had the 800,000 workers that were affected in the U.S. Postal Service breach and the State Department breach, again the ranking member asked to have a hearing on the breaches and cybersecurity then and again we were denied by the previous chairman.    I just want to say that it probably reflects the new leadership, the new chairman, the gentleman from Utah, Mr. Chaffetz, that we are finally addressing this problem, and I think it bodes well not just for the committee and the work we are doing, but also I think for the American people, the people that we are supposed to be protecting. But again I want to thank Mr. Cummings for his leadership on this issue.    I happened to run across a report that was done by the New York State Department of Financial Services, and I would ask unanimous consent that we might enter this into the record, Mr. Chairman.</t>
   </si>
   <si>
@@ -232,6 +283,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    Mr. Scott, in your role as FED CIO, you will have a great deal of influence over IT policies and practices that Federal agencies must implement. Given your role as a technologist and an IT specialist with years of private sector experience, can you give us a general sense of your impression of the State and Federal information security?</t>
   </si>
   <si>
@@ -265,6 +322,12 @@
     <t>400251</t>
   </si>
   <si>
+    <t>Maloney</t>
+  </si>
+  <si>
+    <t>Carolyn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman and Ranking Member, and all of the panelists today for focusing on this important issue. As we speak, they are debating cybersecurity on the floor. It is one of the few areas where there is a joint cause, a joint goal, and joint cooperation because it is so serious, such a threat to the economy and to privacy and really to our technology and security of our Country.    We, unfortunately, had in 2014 several high-profile data breaches of Federal agencies, breaches really that happened because of the contractors in the case of the Postal Service data breach, where over 800,000 current and former employees had their personal information compromised; and the loss of sensitive personal information of tens of thousands of Federal employees occurred because of data breaches of USIS and KeyPoint, two very large Federal contractors.    So I would like to hear what lessons were learned from these experiences and how it plans to apply those lessons to minimize the risk of these breaches in the future, and we will start with you, Ms. Seymour, from OPM. What are the chief lessons that you learned and how are the contractors cooperating? And anyone else who would like to jump in and add to the chief lessons that we have learned from these unfortunate situations.</t>
   </si>
   <si>
@@ -322,6 +385,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Dr. Fischer, let me begin with you. Just from a general guess or estimation, how often are Federal agencies attacked by nation states?</t>
   </si>
   <si>
@@ -400,6 +469,9 @@
     <t xml:space="preserve">    Mr. Hurd. Thank you.    Now I would like to recognize Mr. Cartwright, from Pennsylvania, for five minutes.</t>
   </si>
   <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    Over the last few years a number of high-profile network compromises have left the private personal information on literally millions of people exposed, often taken from supposedly secure private sector and Government computer networks. Some of the attacks appear to come from foreign governments, as Mr. Hice was just exploring; some of them simply from criminals.    The highly publicized compromise of JPMorgan Chase's network let the personal information of 76 million households and 7 million small business customers flow out of company servers. Over the past eight years, the private records of nearly 30 million New Yorkers were exposed by data breaches. The USIS and KeyPoint compromises resulted in the theft of sensitive information from the background investigations of nearly 70,000 employees of the Federal Government.    Now, in a lot of compromises like this, what mitigates some of the damage done is data encryption. While it is obviously unfortunate if a company or agency is hacked, employees or customers can take some solace in the fact that, if their data was encrypted, their personal information is not at risk, even though it was exposed. If you can't read it, you can't use it.    Mr. Wilshusen, my question is for you. Over the years, GAO has conducted a number of assessments of cyber issues related to the Federal Government. When agencies do not have encryption policies in place, how does that affect what you are finding in your investigations?</t>
   </si>
   <si>
@@ -439,6 +511,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Thank you to the witnesses.    When we have victims of cyber attacks, one of the issues is attribution. Where did this come from? I know that they emanate in Eastern Europe, Russia, China, whatever. So how do the agencies work with Homeland Security, the FBI, and other law enforcement in order to trace attacks back to the source when they happen?    Mr. Scott, do you want to give that a shot?</t>
   </si>
   <si>
@@ -490,6 +568,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair.    Welcome. Some of the recent major data breaches at Government agencies and Government contractors have specifically targeted personally identifying information, or PII. For example, the U.S. Postal Service data breach, over 800,000 of its current and former employees' personal information was compromised. USIS and KeyPoint contractors that perform background checks for the Federal Government suffered breaches last year also, potentially exposing tens of thousands of Federal employees' personal information.    Mr. Wilshusen, what are some of the challenges agencies face in working with contractors?</t>
   </si>
   <si>
@@ -527,6 +611,12 @@
   </si>
   <si>
     <t>400295</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I just have a few brief questions.    I am trying to find an industry standard, if you will, because it seems as if both the public and private sector are having the same kinds of problems. Daily news. Both sectors have it. States have it. Everybody has it. In part it is because, whether we face it or not, this technology is relatively new and we still are working our way through it.    I am wondering, don't we contract out most of this work, most of our work to contractors and vendors, as opposed to doing work in-house? I mean, I assume that NASA does work in-house, or maybe they even contract some out. But is most of this work contracted out?</t>
@@ -1070,7 +1160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,7 +1168,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,5117 +1190,5993 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>89</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>89</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>89</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>102</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G75" t="s">
+        <v>102</v>
+      </c>
       <c r="H75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
       <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
       <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
       <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G85" t="s">
+        <v>123</v>
+      </c>
       <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G87" t="s">
+        <v>123</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G89" t="s">
+        <v>123</v>
+      </c>
       <c r="H89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G91" t="s">
+        <v>123</v>
+      </c>
       <c r="H91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G97" t="s">
+        <v>123</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G98" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>101</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>101</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s">
+        <v>123</v>
+      </c>
       <c r="H105" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>101</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s">
+        <v>123</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>151</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>151</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G121" t="s">
+        <v>165</v>
+      </c>
       <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G122" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G123" t="s">
+        <v>165</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G125" t="s">
+        <v>165</v>
+      </c>
       <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G126" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G127" t="s">
+        <v>165</v>
+      </c>
       <c r="H127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G129" t="s">
+        <v>165</v>
+      </c>
       <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G131" t="s">
+        <v>165</v>
+      </c>
       <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>140</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G133" t="s">
+        <v>165</v>
+      </c>
       <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G135" t="s">
+        <v>165</v>
+      </c>
       <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
       <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G137" t="s">
+        <v>184</v>
+      </c>
       <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>38</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G139" t="s">
+        <v>184</v>
+      </c>
       <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G141" t="s">
+        <v>184</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G143" t="s">
+        <v>184</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>32</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>157</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G145" t="s">
+        <v>184</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>32</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>157</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G147" t="s">
+        <v>184</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
       <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G149" t="s">
+        <v>199</v>
+      </c>
       <c r="H149" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I149" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G151" t="s">
+        <v>199</v>
+      </c>
       <c r="H151" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I151" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G153" t="s">
+        <v>199</v>
+      </c>
       <c r="H153" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I153" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>170</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G155" t="s">
+        <v>199</v>
+      </c>
       <c r="H155" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I155" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>38</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>170</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G157" t="s">
+        <v>199</v>
+      </c>
       <c r="H157" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I157" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s">
+        <v>38</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>170</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G159" t="s">
+        <v>199</v>
+      </c>
       <c r="H159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I159" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>170</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G161" t="s">
+        <v>199</v>
+      </c>
       <c r="H161" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I161" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s">
+        <v>38</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>170</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G163" t="s">
+        <v>199</v>
+      </c>
       <c r="H163" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I163" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s">
+        <v>38</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>170</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="G165" t="s">
+        <v>199</v>
+      </c>
       <c r="H165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I165" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
       <c r="H166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
       <c r="H167" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>22</v>
+      </c>
       <c r="H168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I168" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G169" t="s">
+        <v>35</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>22</v>
+      </c>
       <c r="H170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I170" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
+        <v>35</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>22</v>
+      </c>
       <c r="H172" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G173" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
       <c r="H174" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
       <c r="H176" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>22</v>
+      </c>
       <c r="H178" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>22</v>
+      </c>
       <c r="H180" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>22</v>
+      </c>
       <c r="H182" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>22</v>
+      </c>
       <c r="H184" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I184" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>35</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>22</v>
+      </c>
       <c r="H186" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
       <c r="H187" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G188" t="s">
+        <v>32</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>17</v>
+      </c>
       <c r="H189" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I189" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G190" t="s">
+        <v>32</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>17</v>
+      </c>
       <c r="H191" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I191" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G192" t="s">
+        <v>32</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>17</v>
+      </c>
       <c r="H193" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G194" t="s">
+        <v>35</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>17</v>
+      </c>
       <c r="H195" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I195" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>17</v>
+      </c>
       <c r="H197" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I197" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G198" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s">
+        <v>17</v>
+      </c>
       <c r="H199" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I199" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G200" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s">
+        <v>17</v>
+      </c>
       <c r="H201" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I201" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G202" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
       <c r="H203" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I203" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G204" t="s">
+        <v>26</v>
+      </c>
       <c r="H204" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G206" t="s">
+        <v>26</v>
+      </c>
       <c r="H206" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I206" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G207" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G208" t="s">
+        <v>26</v>
+      </c>
       <c r="H208" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I208" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G209" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G210" t="s">
+        <v>17</v>
+      </c>
       <c r="H210" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I210" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>17</v>
+      </c>
       <c r="H212" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G213" t="s">
+        <v>26</v>
+      </c>
       <c r="H213" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I213" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
+        <v>17</v>
+      </c>
       <c r="H214" t="s">
-        <v>235</v>
+        <v>18</v>
+      </c>
+      <c r="I214" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97335.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412270</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Chaffetz</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412654</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Hurd</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400090</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Cummings</t>
@@ -1160,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,7 +1180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,5990 +1205,6440 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
-      </c>
-      <c r="G58" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" t="s">
-        <v>35</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
-        <v>35</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G87" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" t="s">
-        <v>41</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s">
-        <v>41</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I93" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I97" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" t="s">
-        <v>38</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>42</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G99" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I101" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G105" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>155</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" t="s">
-        <v>151</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>155</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>42</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
-      </c>
-      <c r="G113" t="s">
-        <v>151</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>155</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" t="s">
-        <v>151</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>155</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>38</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>42</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" t="s">
-        <v>151</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>155</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
-      </c>
-      <c r="G119" t="s">
-        <v>151</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>155</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G121" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G123" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J123" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G125" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I125" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" t="s">
-        <v>35</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>39</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G127" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I127" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J127" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G129" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I129" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J129" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" t="s">
-        <v>35</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G131" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I131" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>39</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G133" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>39</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G135" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J135" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G137" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" t="s">
-        <v>38</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>42</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G139" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G141" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G143" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>36</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G145" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I145" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G147" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I147" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G149" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>36</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G151" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I151" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
-      </c>
-      <c r="G152" t="s">
-        <v>32</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>36</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G153" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I153" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>36</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G155" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I155" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>38</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>42</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G157" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H157" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I157" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J157" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
-      </c>
-      <c r="G158" t="s">
-        <v>38</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>42</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G159" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I159" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J159" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160" t="s">
-        <v>38</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>42</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G161" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I161" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
-      </c>
-      <c r="G162" t="s">
-        <v>38</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>42</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G163" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I163" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164" t="s">
-        <v>38</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>42</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G165" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I165" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="J165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H167" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J167" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G168" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H168" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I168" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J168" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
-      </c>
-      <c r="G169" t="s">
-        <v>35</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>39</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G170" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H170" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I170" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J170" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
-      </c>
-      <c r="G171" t="s">
-        <v>35</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>39</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G172" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I172" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J172" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
-      </c>
-      <c r="G173" t="s">
-        <v>35</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>39</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G174" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I174" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" t="s">
-        <v>35</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>39</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G176" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H176" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I176" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J176" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>39</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G178" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H178" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I178" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J178" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>39</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G180" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H180" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I180" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G181" t="s">
-        <v>35</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>39</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G182" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H182" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I182" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
-      </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>39</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G184" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I184" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>39</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G186" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I186" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J186" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I187" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
-      </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>36</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G189" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J189" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
-      </c>
-      <c r="G190" t="s">
-        <v>32</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>36</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I191" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
-      </c>
-      <c r="G192" t="s">
-        <v>32</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>36</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I193" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
-      </c>
-      <c r="G194" t="s">
-        <v>35</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>39</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I195" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J195" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
-      </c>
-      <c r="G196" t="s">
-        <v>35</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>39</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G197" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I197" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
-      </c>
-      <c r="G198" t="s">
-        <v>35</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>39</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H199" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I199" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J199" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
-      </c>
-      <c r="G200" t="s">
-        <v>35</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>39</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G201" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H201" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I201" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>39</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G203" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H203" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I203" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J203" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H204" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I204" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J204" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
-      </c>
-      <c r="G205" t="s">
-        <v>32</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H206" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I206" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J206" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
-      </c>
-      <c r="G207" t="s">
-        <v>35</v>
-      </c>
-      <c r="H207" t="s"/>
-      <c r="I207" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s"/>
+      <c r="H207" t="s">
+        <v>39</v>
+      </c>
+      <c r="I207" t="s"/>
+      <c r="J207" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H208" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I208" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J208" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
-      </c>
-      <c r="G209" t="s">
-        <v>38</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>42</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G210" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I210" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J210" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
-      </c>
-      <c r="G211" t="s">
-        <v>41</v>
-      </c>
-      <c r="H211" t="s"/>
-      <c r="I211" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s"/>
+      <c r="H211" t="s">
+        <v>45</v>
+      </c>
+      <c r="I211" t="s"/>
+      <c r="J211" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G212" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H212" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I212" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J212" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H213" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I213" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G214" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I214" t="s">
-        <v>265</v>
+        <v>21</v>
+      </c>
+      <c r="J214" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
